--- a/packages/react-boilerplate-app-scripts/template/en_US-src/locale/excel/multi-language(translated).xlsx
+++ b/packages/react-boilerplate-app-scripts/template/en_US-src/locale/excel/multi-language(translated).xlsx
@@ -376,47 +376,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>About</v>
+        <v>en_US</v>
       </c>
       <c r="B1" t="str">
-        <v>关于</v>
+        <v>zh_CN</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>To get started, edit src/view/about/index.jsx.</v>
+        <v>About</v>
       </c>
       <c r="B2" t="str">
-        <v>开始编写, 请编辑 src/view/about/index.jsx.</v>
+        <v>关于</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>When you save the file,it will be updated to the browser automatically.</v>
+        <v>To get started, edit src/view/about/index.jsx.</v>
       </c>
       <c r="B3" t="str">
-        <v>保存文件时，将自动更新到浏览器。</v>
+        <v>开始编写, 请编辑 src/view/about/index.jsx.</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Home</v>
+        <v>When you save the file,it will be updated to the browser automatically.</v>
       </c>
       <c r="B4" t="str">
-        <v>主页</v>
+        <v>保存文件时，将自动更新到浏览器。</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>To get started, edit src/view/index/index.jsx.</v>
+        <v>Home</v>
       </c>
       <c r="B5" t="str">
-        <v>开始编写, 请编辑 src/view/index/index.jsx.</v>
+        <v>主页</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>en_US</v>
+        <v>To get started, edit src/view/index/index.jsx.</v>
+      </c>
+      <c r="B6" t="str">
+        <v>开始编写, 请编辑 src/view/index/index.jsx.</v>
       </c>
     </row>
   </sheetData>
